--- a/your-project/Experiment Details/Sample Details.xlsx
+++ b/your-project/Experiment Details/Sample Details.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccaestiarte/Desktop/IronHack/PROJECTS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccaestiarte/Desktop/IronHack/PROJECTS/Project-Week-8-Final-Project/your-project/Experiment Details/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{849F59E0-491D-F64A-AAE3-45AE294CA076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE56467C-5BB0-FF49-AFAE-53AA55D435B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17180" yWindow="2940" windowWidth="27640" windowHeight="16940" xr2:uid="{F33C1B74-3B43-814C-B702-B9EC64D05BA0}"/>
+    <workbookView xWindow="8200" yWindow="2900" windowWidth="27640" windowHeight="16940" xr2:uid="{F33C1B74-3B43-814C-B702-B9EC64D05BA0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sample_Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Experiments_Info" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="55">
+  <si>
+    <t>Age</t>
+  </si>
   <si>
     <t>Average Age</t>
   </si>
@@ -48,9 +51,6 @@
     <t>Home</t>
   </si>
   <si>
-    <t>Me</t>
-  </si>
-  <si>
     <t xml:space="preserve">Normal </t>
   </si>
   <si>
@@ -126,7 +126,7 @@
     <t>Total No of Experiments</t>
   </si>
   <si>
-    <t>No of Successful Experiments*</t>
+    <t>Location</t>
   </si>
   <si>
     <t>*Male</t>
@@ -135,9 +135,6 @@
     <t>*Female</t>
   </si>
   <si>
-    <t>*Locations</t>
-  </si>
-  <si>
     <t>*Home</t>
   </si>
   <si>
@@ -145,13 +142,70 @@
   </si>
   <si>
     <t>*Caffe</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Successful</t>
+  </si>
+  <si>
+    <t>Session Type</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>zakaries@gmail.com</t>
+  </si>
+  <si>
+    <t>realadresses@icloud.com</t>
+  </si>
+  <si>
+    <t>rebeccaestiarte@gmail.com</t>
+  </si>
+  <si>
+    <t>langlois.robin@gmail.com</t>
+  </si>
+  <si>
+    <t>Andre</t>
+  </si>
+  <si>
+    <t>minervaliste@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measures </t>
+  </si>
+  <si>
+    <t>of which Successful*</t>
+  </si>
+  <si>
+    <t>Locations No</t>
+  </si>
+  <si>
+    <t>Information</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,6 +236,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -200,11 +261,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -219,10 +281,26 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -534,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B05E8E7-CB5F-B34A-A895-75674C2030CE}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:B10"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -546,92 +624,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <f>AVERAGE(Experiments_Info!I2:I21)</f>
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="14">
+        <f>5/B5</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="14">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="14">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="14">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="14">
         <v>0</v>
       </c>
-      <c r="B1">
-        <f>AVERAGE(Sheet2!I1:I19)</f>
-        <v>30.2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
@@ -649,7 +733,10 @@
       <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -658,184 +745,207 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB7CC1A-D82D-C04B-A8AF-F1946DECB379}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="27.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>43896</v>
-      </c>
-      <c r="B1">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2">
-        <v>0.53125</v>
-      </c>
-      <c r="D1" s="2">
-        <v>0.53819444444444442</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1">
-        <v>26</v>
+      <c r="A1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>0.63958333333333328</v>
+        <v>0.53125</v>
       </c>
       <c r="D2" s="2">
-        <v>0.64652777777777781</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="I2">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.63958333333333328</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.64652777777777781</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
-        <v>0.55902777777777779</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.56597222222222221</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
       <c r="I3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43898</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4">
+        <v>26</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4">
+      <c r="H5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>43899</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.51736111111111105</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>0.51041666666666663</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="D6" s="2">
-        <v>0.51736111111111105</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>31</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -843,29 +953,31 @@
         <v>43899</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>0.52777777777777779</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D7" s="2">
-        <v>0.53472222222222221</v>
+        <v>0.51736111111111105</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>22</v>
+      </c>
       <c r="J7" s="4" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -873,16 +985,16 @@
         <v>43899</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>0.52777777777777779</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D8" s="2">
-        <v>0.53472222222222221</v>
+        <v>0.51736111111111105</v>
       </c>
       <c r="E8" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -891,10 +1003,13 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>29</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -902,7 +1017,7 @@
         <v>43899</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2">
         <v>0.52777777777777779</v>
@@ -911,19 +1026,22 @@
         <v>0.53472222222222221</v>
       </c>
       <c r="E9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>25</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -931,7 +1049,7 @@
         <v>43899</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2">
         <v>0.52777777777777779</v>
@@ -940,7 +1058,7 @@
         <v>0.53472222222222221</v>
       </c>
       <c r="E10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
@@ -949,68 +1067,78 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I10">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43899</v>
       </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
       <c r="C11" s="2">
-        <v>0.63888888888888895</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="D11" s="2">
-        <v>0.63888888888888895</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="E11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I11">
-        <v>38</v>
-      </c>
-      <c r="J11" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43899</v>
       </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
       <c r="C12" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="D12" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="E12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I12">
-        <v>38</v>
-      </c>
-      <c r="J12" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -1020,13 +1148,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="2">
-        <v>0.65277777777777779</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="D13" s="2">
-        <v>0.65972222222222221</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="E13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
         <v>7</v>
@@ -1035,58 +1163,62 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13">
-        <v>32</v>
-      </c>
-      <c r="J13" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43899</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2">
         <v>0.64583333333333337</v>
       </c>
       <c r="D14" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14">
-        <v>32</v>
-      </c>
-      <c r="J14" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43899</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="D15" s="2">
-        <v>0.67361111111111116</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="E15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -1095,43 +1227,45 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15">
-        <v>29</v>
-      </c>
-      <c r="J15" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="1">
         <v>43899</v>
       </c>
-      <c r="B16" s="6">
-        <v>12</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.68055555555555547</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="6">
-        <v>29</v>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>32</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1139,7 +1273,7 @@
         <v>43899</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2">
         <v>0.66666666666666663</v>
@@ -1148,7 +1282,7 @@
         <v>0.67361111111111116</v>
       </c>
       <c r="E17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>7</v>
@@ -1157,18 +1291,21 @@
         <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I17">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>43899</v>
       </c>
-      <c r="B18" s="6">
-        <v>12</v>
+      <c r="B18">
+        <v>17</v>
       </c>
       <c r="C18" s="7">
         <v>0.67361111111111116</v>
@@ -1177,61 +1314,141 @@
         <v>0.68055555555555547</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="6">
+        <v>29</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
         <v>25</v>
-      </c>
-      <c r="I18">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>43900</v>
-      </c>
-      <c r="B19" s="6">
-        <v>12</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0.6069444444444444</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0.61388888888888882</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="I19">
         <v>32</v>
       </c>
       <c r="J19" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>43899</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20">
+        <v>32</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>43900</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.61388888888888882</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21">
+        <v>32</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="H22" s="3"/>
+      <c r="J22" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J7" r:id="rId1" xr:uid="{09BAF7AB-C290-2047-B214-10D73508D751}"/>
-    <hyperlink ref="J8" r:id="rId2" xr:uid="{01910096-B12B-904A-A23D-B7A4EAA31890}"/>
-    <hyperlink ref="J10" r:id="rId3" xr:uid="{045AFB37-1DA7-194D-843C-20C95543041A}"/>
-    <hyperlink ref="J9" r:id="rId4" xr:uid="{5511EED4-A6BC-4145-825D-A502C8CB4063}"/>
-    <hyperlink ref="J6" r:id="rId5" display="mailto:migue.granica@gmail.com" xr:uid="{518DED1A-E36E-1542-856E-6EFD85F2355E}"/>
-    <hyperlink ref="J19" r:id="rId6" display="mailto:paolavee@gmail.com" xr:uid="{B00C9669-249D-5B4C-8D31-F74F10F9CFA6}"/>
+    <hyperlink ref="J9" r:id="rId1" xr:uid="{09BAF7AB-C290-2047-B214-10D73508D751}"/>
+    <hyperlink ref="J10" r:id="rId2" xr:uid="{01910096-B12B-904A-A23D-B7A4EAA31890}"/>
+    <hyperlink ref="J12" r:id="rId3" xr:uid="{045AFB37-1DA7-194D-843C-20C95543041A}"/>
+    <hyperlink ref="J11" r:id="rId4" xr:uid="{5511EED4-A6BC-4145-825D-A502C8CB4063}"/>
+    <hyperlink ref="J8" r:id="rId5" display="mailto:migue.granica@gmail.com" xr:uid="{518DED1A-E36E-1542-856E-6EFD85F2355E}"/>
+    <hyperlink ref="J21" r:id="rId6" display="mailto:paolavee@gmail.com" xr:uid="{B00C9669-249D-5B4C-8D31-F74F10F9CFA6}"/>
+    <hyperlink ref="J15" r:id="rId7" xr:uid="{FF9C882D-D02A-1445-99D7-907E905481CD}"/>
+    <hyperlink ref="J16" r:id="rId8" xr:uid="{30A2E184-EA2D-8C44-8D59-EE1FE7B8DD4A}"/>
+    <hyperlink ref="J4" r:id="rId9" xr:uid="{969B96B9-C0CC-1D41-ADAD-909BD4E5BCE2}"/>
+    <hyperlink ref="J2" r:id="rId10" display="mailto:migue.granica@gmail.com" xr:uid="{CAEA104C-D685-E246-8832-59BA9876F054}"/>
+    <hyperlink ref="J19" r:id="rId11" display="mailto:langlois.robin@gmail.com" xr:uid="{6FF40AB1-EBB2-0D42-9908-C80CA58099C2}"/>
+    <hyperlink ref="J20" r:id="rId12" xr:uid="{74E07BD1-9B41-E04D-BF8D-DD80146BEC2E}"/>
+    <hyperlink ref="J13" r:id="rId13" xr:uid="{FE78C352-D0FE-8C47-832B-3A88D450465A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/your-project/Experiment Details/Sample Details.xlsx
+++ b/your-project/Experiment Details/Sample Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccaestiarte/Desktop/IronHack/PROJECTS/Project-Week-8-Final-Project/your-project/Experiment Details/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE56467C-5BB0-FF49-AFAE-53AA55D435B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1E5D96-82A8-2E4A-ACF2-92233459DB95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8200" yWindow="2900" windowWidth="27640" windowHeight="16940" xr2:uid="{F33C1B74-3B43-814C-B702-B9EC64D05BA0}"/>
   </bookViews>
@@ -615,7 +615,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
